--- a/MethodDemos/output/statistics/grobid-AUTHORS.xlsx
+++ b/MethodDemos/output/statistics/grobid-AUTHORS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="235">
   <si>
     <t>TUW-137078</t>
   </si>
@@ -683,6 +683,11 @@
   <si>
     <t>Amirreza Tahamtan
 Rainer Kern
+A Min Tjoa</t>
+  </si>
+  <si>
+    <t>Amirreza Tahamtan
+Rainer Kern
 Min Tjoa</t>
   </si>
   <si>
@@ -972,7 +977,7 @@
   </si>
   <si>
     <t>Bogdan Ionescu
-Alexandru Lucian Gînsc
+Alexandru Lucian Gînscă
 Maia Zaharieva
 Bogdan Boteanu
 Mihai Lupu
@@ -5678,21 +5683,21 @@
         <v>153</v>
       </c>
       <c r="F66" t="s" s="591">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G66" t="n" s="592">
-        <v>1.0</v>
+        <v>0.67</v>
       </c>
       <c r="H66" t="n" s="593">
-        <v>1.0</v>
+        <v>0.67</v>
       </c>
       <c r="I66" t="n" s="594">
-        <v>1.0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="595">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B67" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
@@ -5704,10 +5709,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-203409-xstream.xml")</f>
       </c>
       <c r="E67" t="s" s="599">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F67" t="s" s="600">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G67" t="n" s="601">
         <v>1.0</v>
@@ -5721,7 +5726,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="604">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B68" s="605">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
@@ -5733,10 +5738,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-203924-xstream.xml")</f>
       </c>
       <c r="E68" t="s" s="608">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s" s="609">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G68" t="n" s="610">
         <v>1.0</v>
@@ -5750,7 +5755,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="613">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B69" s="614">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
@@ -5762,10 +5767,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s" s="617">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s" s="618">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G69" t="n" s="619">
         <v>1.0</v>
@@ -5779,7 +5784,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="622">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B70" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
@@ -5791,10 +5796,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-205557-xstream.xml")</f>
       </c>
       <c r="E70" t="s" s="626">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s" s="627">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G70" t="n" s="628">
         <v>1.0</v>
@@ -5808,7 +5813,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="631">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B71" s="632">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
@@ -5820,10 +5825,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-205933-xstream.xml")</f>
       </c>
       <c r="E71" t="s" s="635">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F71" t="s" s="636">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G71" t="n" s="637">
         <v>1.0</v>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="640">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B72" s="641">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
@@ -5849,10 +5854,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s" s="644">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F72" t="s" s="645">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G72" t="n" s="646">
         <v>1.0</v>
@@ -5866,7 +5871,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="649">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
@@ -5878,10 +5883,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-216744-xstream.xml")</f>
       </c>
       <c r="E73" t="s" s="653">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F73" t="s" s="654">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G73" t="n" s="655">
         <v>0.5</v>
@@ -5895,7 +5900,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="658">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
@@ -5907,10 +5912,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-217690-xstream.xml")</f>
       </c>
       <c r="E74" t="s" s="662">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F74" t="s" s="663">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G74" t="n" s="664">
         <v>1.0</v>
@@ -5924,7 +5929,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="667">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B75" s="668">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
@@ -5936,10 +5941,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-217971-xstream.xml")</f>
       </c>
       <c r="E75" t="s" s="671">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" t="s" s="672">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G75" t="n" s="673">
         <v>1.0</v>
@@ -5953,7 +5958,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="676">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B76" s="677">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
@@ -5965,10 +5970,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-221215-xstream.xml")</f>
       </c>
       <c r="E76" t="s" s="680">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F76" t="s" s="681">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G76" t="n" s="682">
         <v>0.67</v>
@@ -5982,7 +5987,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="685">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B77" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
@@ -5994,10 +5999,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s" s="689">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F77" t="s" s="690">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G77" t="n" s="691">
         <v>0.6</v>
@@ -6011,7 +6016,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="694">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B78" s="695">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
@@ -6023,10 +6028,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-223973-xstream.xml")</f>
       </c>
       <c r="E78" t="s" s="698">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s" s="699">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G78" t="n" s="700">
         <v>1.0</v>
@@ -6040,7 +6045,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="703">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B79" s="704">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
@@ -6052,10 +6057,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-225252-xstream.xml")</f>
       </c>
       <c r="E79" t="s" s="707">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s" s="708">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G79" t="n" s="709">
         <v>0.67</v>
@@ -6069,7 +6074,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="712">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B80" s="713">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
@@ -6081,10 +6086,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-226000-xstream.xml")</f>
       </c>
       <c r="E80" t="s" s="716">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F80" t="s" s="717">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G80" t="n" s="718">
         <v>1.0</v>
@@ -6098,7 +6103,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="721">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" s="722">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
@@ -6110,10 +6115,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-226016-xstream.xml")</f>
       </c>
       <c r="E81" t="s" s="725">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F81" t="s" s="726">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G81" t="n" s="727">
         <v>0.14</v>
@@ -6127,7 +6132,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="730">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B82" s="731">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
@@ -6139,10 +6144,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s" s="734">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F82" t="s" s="735">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G82" t="n" s="736">
         <v>0.43</v>
@@ -6156,7 +6161,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="739">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B83" s="740">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
@@ -6168,10 +6173,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-231707-xstream.xml")</f>
       </c>
       <c r="E83" t="s" s="743">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F83" t="s" s="744">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G83" t="n" s="745">
         <v>1.0</v>
@@ -6185,7 +6190,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="748">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B84" s="749">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
@@ -6197,10 +6202,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s" s="752">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F84" t="s" s="753">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G84" t="n" s="754">
         <v>0.75</v>
@@ -6214,7 +6219,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="757">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B85" s="758">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
@@ -6226,10 +6231,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s" s="761">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F85" t="s" s="762">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G85" t="n" s="763">
         <v>1.0</v>
@@ -6243,7 +6248,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="766">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B86" s="767">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
@@ -6255,10 +6260,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-236063-xstream.xml")</f>
       </c>
       <c r="E86" t="s" s="770">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F86" t="s" s="771">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G86" t="n" s="772">
         <v>1.0</v>
@@ -6272,7 +6277,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="775">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B87" s="776">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
@@ -6284,10 +6289,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s" s="779">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F87" t="s" s="780">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G87" t="n" s="781">
         <v>1.0</v>
@@ -6301,7 +6306,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="784">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B88" s="785">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
@@ -6313,10 +6318,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-237297-xstream.xml")</f>
       </c>
       <c r="E88" t="s" s="788">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s" s="789">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G88" t="n" s="790">
         <v>1.0</v>
@@ -6330,7 +6335,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="793">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B89" s="794">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
@@ -6342,10 +6347,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s" s="797">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F89" t="s" s="798">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G89" t="n" s="799">
         <v>1.0</v>
@@ -6359,7 +6364,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="802">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B90" s="803">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
@@ -6388,7 +6393,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="811">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B91" s="812">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
@@ -6400,13 +6405,13 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s" s="815">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s" s="816">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G91" t="s" s="817">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H91" t="n" s="818">
         <v>0.0</v>
@@ -6417,7 +6422,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="820">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B92" s="821">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
@@ -6429,10 +6434,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s" s="824">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F92" t="s" s="825">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G92" t="n" s="826">
         <v>1.0</v>
@@ -6446,7 +6451,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="829">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B93" s="830">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
@@ -6458,10 +6463,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-247741-xstream.xml")</f>
       </c>
       <c r="E93" t="s" s="833">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F93" t="s" s="834">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G93" t="n" s="835">
         <v>1.0</v>
@@ -6475,7 +6480,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="838">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B94" s="839">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
@@ -6487,10 +6492,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-247743-xstream.xml")</f>
       </c>
       <c r="E94" t="s" s="842">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s" s="843">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G94" t="n" s="844">
         <v>0.25</v>
@@ -6504,7 +6509,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="847">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B95" s="848">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
@@ -6516,10 +6521,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s" s="851">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s" s="852">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G95" t="n" s="853">
         <v>1.0</v>
@@ -6533,7 +6538,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="856">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B96" s="857">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
@@ -6545,10 +6550,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s" s="860">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F96" t="s" s="861">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G96" t="n" s="862">
         <v>0.36</v>
@@ -6562,7 +6567,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="865">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B97" s="866">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
@@ -6574,10 +6579,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-255712-xstream.xml")</f>
       </c>
       <c r="E97" t="s" s="869">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F97" t="s" s="870">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G97" t="n" s="871">
         <v>1.0</v>
@@ -6591,7 +6596,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="874">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B98" s="875">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
@@ -6603,10 +6608,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s" s="878">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F98" t="s" s="879">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G98" t="n" s="880">
         <v>1.0</v>
@@ -6620,7 +6625,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="883">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B99" s="884">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
@@ -6632,10 +6637,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s" s="887">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F99" t="s" s="888">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G99" t="n" s="889">
         <v>1.0</v>
@@ -6649,7 +6654,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="892">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B100" s="893">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
@@ -6661,10 +6666,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s" s="896">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s" s="897">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G100" t="n" s="898">
         <v>0.5</v>
